--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H2">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I2">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J2">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7417884909641</v>
+        <v>13.21972033333333</v>
       </c>
       <c r="N2">
-        <v>11.7417884909641</v>
+        <v>39.659161</v>
       </c>
       <c r="O2">
-        <v>0.2148701745305351</v>
+        <v>0.2311669015805739</v>
       </c>
       <c r="P2">
-        <v>0.2148701745305351</v>
+        <v>0.2311669015805739</v>
       </c>
       <c r="Q2">
-        <v>2.241032379339849</v>
+        <v>2.615006098857</v>
       </c>
       <c r="R2">
-        <v>2.241032379339849</v>
+        <v>23.535054889713</v>
       </c>
       <c r="S2">
-        <v>0.0002718908270506263</v>
+        <v>0.0002945392528682919</v>
       </c>
       <c r="T2">
-        <v>0.0002718908270506263</v>
+        <v>0.0002945392528682919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H3">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I3">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J3">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.4619660290666</v>
+        <v>34.595189</v>
       </c>
       <c r="N3">
-        <v>34.4619660290666</v>
+        <v>103.785567</v>
       </c>
       <c r="O3">
-        <v>0.6306406099061755</v>
+        <v>0.6049494580123129</v>
       </c>
       <c r="P3">
-        <v>0.6306406099061755</v>
+        <v>0.6049494580123129</v>
       </c>
       <c r="Q3">
-        <v>6.577395069437749</v>
+        <v>6.843308931278999</v>
       </c>
       <c r="R3">
-        <v>6.577395069437749</v>
+        <v>61.589780381511</v>
       </c>
       <c r="S3">
-        <v>0.0007979953354332786</v>
+        <v>0.0007707909746928848</v>
       </c>
       <c r="T3">
-        <v>0.0007979953354332786</v>
+        <v>0.0007707909746928849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H4">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I4">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J4">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0718818477149118</v>
+        <v>0.110909</v>
       </c>
       <c r="N4">
-        <v>0.0718818477149118</v>
+        <v>0.332727</v>
       </c>
       <c r="O4">
-        <v>0.001315409928901918</v>
+        <v>0.001939412426354648</v>
       </c>
       <c r="P4">
-        <v>0.001315409928901918</v>
+        <v>0.001939412426354648</v>
       </c>
       <c r="Q4">
-        <v>0.01371933656783718</v>
+        <v>0.021939020199</v>
       </c>
       <c r="R4">
-        <v>0.01371933656783718</v>
+        <v>0.197451181791</v>
       </c>
       <c r="S4">
-        <v>1.664483655124145E-06</v>
+        <v>2.471085104122806E-06</v>
       </c>
       <c r="T4">
-        <v>1.664483655124145E-06</v>
+        <v>2.471085104122807E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H5">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I5">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J5">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.370330745272581</v>
+        <v>9.261089666666665</v>
       </c>
       <c r="N5">
-        <v>8.370330745272581</v>
+        <v>27.783269</v>
       </c>
       <c r="O5">
-        <v>0.1531738056343875</v>
+        <v>0.1619442279807586</v>
       </c>
       <c r="P5">
-        <v>0.1531738056343875</v>
+        <v>0.1619442279807586</v>
       </c>
       <c r="Q5">
-        <v>1.59755749649</v>
+        <v>1.831945408053</v>
       </c>
       <c r="R5">
-        <v>1.59755749649</v>
+        <v>16.487508672477</v>
       </c>
       <c r="S5">
-        <v>0.0001938219335811408</v>
+        <v>0.0002063397986028694</v>
       </c>
       <c r="T5">
-        <v>0.0001938219335811408</v>
+        <v>0.0002063397986028695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>150.641824477826</v>
+        <v>154.0066273333333</v>
       </c>
       <c r="H6">
-        <v>150.641824477826</v>
+        <v>462.0198820000001</v>
       </c>
       <c r="I6">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744044</v>
       </c>
       <c r="J6">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7417884909641</v>
+        <v>13.21972033333333</v>
       </c>
       <c r="N6">
-        <v>11.7417884909641</v>
+        <v>39.659161</v>
       </c>
       <c r="O6">
-        <v>0.2148701745305351</v>
+        <v>0.2311669015805739</v>
       </c>
       <c r="P6">
-        <v>0.2148701745305351</v>
+        <v>0.2311669015805739</v>
       </c>
       <c r="Q6">
-        <v>1768.804440911571</v>
+        <v>2035.924542826556</v>
       </c>
       <c r="R6">
-        <v>1768.804440911571</v>
+        <v>18323.320885439</v>
       </c>
       <c r="S6">
-        <v>0.2145982837034845</v>
+        <v>0.2293148356336375</v>
       </c>
       <c r="T6">
-        <v>0.2145982837034845</v>
+        <v>0.2293148356336375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>150.641824477826</v>
+        <v>154.0066273333333</v>
       </c>
       <c r="H7">
-        <v>150.641824477826</v>
+        <v>462.0198820000001</v>
       </c>
       <c r="I7">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744044</v>
       </c>
       <c r="J7">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.4619660290666</v>
+        <v>34.595189</v>
       </c>
       <c r="N7">
-        <v>34.4619660290666</v>
+        <v>103.785567</v>
       </c>
       <c r="O7">
-        <v>0.6306406099061755</v>
+        <v>0.6049494580123129</v>
       </c>
       <c r="P7">
-        <v>0.6306406099061755</v>
+        <v>0.6049494580123129</v>
       </c>
       <c r="Q7">
-        <v>5191.413437711453</v>
+        <v>5327.888379849232</v>
       </c>
       <c r="R7">
-        <v>5191.413437711453</v>
+        <v>47950.9954186431</v>
       </c>
       <c r="S7">
-        <v>0.6298426145707423</v>
+        <v>0.6001027161857728</v>
       </c>
       <c r="T7">
-        <v>0.6298426145707423</v>
+        <v>0.6001027161857728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.641824477826</v>
+        <v>154.0066273333333</v>
       </c>
       <c r="H8">
-        <v>150.641824477826</v>
+        <v>462.0198820000001</v>
       </c>
       <c r="I8">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744044</v>
       </c>
       <c r="J8">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0718818477149118</v>
+        <v>0.110909</v>
       </c>
       <c r="N8">
-        <v>0.0718818477149118</v>
+        <v>0.332727</v>
       </c>
       <c r="O8">
-        <v>0.001315409928901918</v>
+        <v>0.001939412426354648</v>
       </c>
       <c r="P8">
-        <v>0.001315409928901918</v>
+        <v>0.001939412426354648</v>
       </c>
       <c r="Q8">
-        <v>10.82841268661156</v>
+        <v>17.08072103091267</v>
       </c>
       <c r="R8">
-        <v>10.82841268661156</v>
+        <v>153.726489278214</v>
       </c>
       <c r="S8">
-        <v>0.001313745445246793</v>
+        <v>0.00192387421700306</v>
       </c>
       <c r="T8">
-        <v>0.001313745445246793</v>
+        <v>0.00192387421700306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>154.0066273333333</v>
+      </c>
+      <c r="H9">
+        <v>462.0198820000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9919881871744044</v>
+      </c>
+      <c r="J9">
+        <v>0.9919881871744045</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.261089666666665</v>
+      </c>
+      <c r="N9">
+        <v>27.783269</v>
+      </c>
+      <c r="O9">
+        <v>0.1619442279807586</v>
+      </c>
+      <c r="P9">
+        <v>0.1619442279807586</v>
+      </c>
+      <c r="Q9">
+        <v>1426.269184994917</v>
+      </c>
+      <c r="R9">
+        <v>12836.42266495426</v>
+      </c>
+      <c r="S9">
+        <v>0.1606467611379911</v>
+      </c>
+      <c r="T9">
+        <v>0.1606467611379912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.13808</v>
+      </c>
+      <c r="I10">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J10">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.21972033333333</v>
+      </c>
+      <c r="N10">
+        <v>39.659161</v>
+      </c>
+      <c r="O10">
+        <v>0.2311669015805739</v>
+      </c>
+      <c r="P10">
+        <v>0.2311669015805739</v>
+      </c>
+      <c r="Q10">
+        <v>13.82817999454222</v>
+      </c>
+      <c r="R10">
+        <v>124.45361995088</v>
+      </c>
+      <c r="S10">
+        <v>0.001557526694068125</v>
+      </c>
+      <c r="T10">
+        <v>0.001557526694068124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>150.641824477826</v>
-      </c>
-      <c r="H9">
-        <v>150.641824477826</v>
-      </c>
-      <c r="I9">
-        <v>0.9987346274202799</v>
-      </c>
-      <c r="J9">
-        <v>0.9987346274202799</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.370330745272581</v>
-      </c>
-      <c r="N9">
-        <v>8.370330745272581</v>
-      </c>
-      <c r="O9">
-        <v>0.1531738056343875</v>
-      </c>
-      <c r="P9">
-        <v>0.1531738056343875</v>
-      </c>
-      <c r="Q9">
-        <v>1260.921894950703</v>
-      </c>
-      <c r="R9">
-        <v>1260.921894950703</v>
-      </c>
-      <c r="S9">
-        <v>0.1529799837008064</v>
-      </c>
-      <c r="T9">
-        <v>0.1529799837008064</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.13808</v>
+      </c>
+      <c r="I11">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J11">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>34.595189</v>
+      </c>
+      <c r="N11">
+        <v>103.785567</v>
+      </c>
+      <c r="O11">
+        <v>0.6049494580123129</v>
+      </c>
+      <c r="P11">
+        <v>0.6049494580123129</v>
+      </c>
+      <c r="Q11">
+        <v>36.18749023237333</v>
+      </c>
+      <c r="R11">
+        <v>325.68741209136</v>
+      </c>
+      <c r="S11">
+        <v>0.004075950851847215</v>
+      </c>
+      <c r="T11">
+        <v>0.004075950851847215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.13808</v>
+      </c>
+      <c r="I12">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J12">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.110909</v>
+      </c>
+      <c r="N12">
+        <v>0.332727</v>
+      </c>
+      <c r="O12">
+        <v>0.001939412426354648</v>
+      </c>
+      <c r="P12">
+        <v>0.001939412426354648</v>
+      </c>
+      <c r="Q12">
+        <v>0.1160137715733333</v>
+      </c>
+      <c r="R12">
+        <v>1.04412394416</v>
+      </c>
+      <c r="S12">
+        <v>1.306712424746466E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.306712424746466E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.13808</v>
+      </c>
+      <c r="I13">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J13">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.261089666666665</v>
+      </c>
+      <c r="N13">
+        <v>27.783269</v>
+      </c>
+      <c r="O13">
+        <v>0.1619442279807586</v>
+      </c>
+      <c r="P13">
+        <v>0.1619442279807586</v>
+      </c>
+      <c r="Q13">
+        <v>9.687346753724443</v>
+      </c>
+      <c r="R13">
+        <v>87.18612078352</v>
+      </c>
+      <c r="S13">
+        <v>0.001091127044164535</v>
+      </c>
+      <c r="T13">
+        <v>0.001091127044164535</v>
       </c>
     </row>
   </sheetData>
